--- a/画面設計/画面設計一覧.xlsx
+++ b/画面設計/画面設計一覧.xlsx
@@ -401,57 +401,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3295650" cy="6943725"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="2551750" cy="5410201"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="2551750" cy="5410201"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Shape 5"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId3">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="2551750" cy="5410201"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -471,11 +420,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvPr id="5" name="Shape 5"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId4">
+          <a:blip r:embed="rId3">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -522,11 +471,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvPr id="6" name="Shape 6"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId5">
+          <a:blip r:embed="rId4">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -573,11 +522,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="Shape 8"/>
+          <xdr:cNvPr id="7" name="Shape 7"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId6">
+          <a:blip r:embed="rId5">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -624,11 +573,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvPr id="8" name="Shape 8"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId7">
+          <a:blip r:embed="rId6">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -675,11 +624,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvPr id="9" name="Shape 9"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId8">
+          <a:blip r:embed="rId7">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -726,11 +675,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="Shape 11"/>
+          <xdr:cNvPr id="10" name="Shape 10"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId9">
+          <a:blip r:embed="rId8">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -777,11 +726,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvPr id="11" name="Shape 11"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId10">
+          <a:blip r:embed="rId9">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -828,11 +777,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvPr id="12" name="Shape 12"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId11">
+          <a:blip r:embed="rId10">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -879,11 +828,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="Shape 14"/>
+          <xdr:cNvPr id="13" name="Shape 13"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId12">
+          <a:blip r:embed="rId11">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -930,11 +879,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="Shape 15"/>
+          <xdr:cNvPr id="14" name="Shape 14"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId13">
+          <a:blip r:embed="rId12">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -981,11 +930,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPr id="15" name="Shape 15"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId14">
+          <a:blip r:embed="rId13">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1032,6 +981,57 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId14">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315198" cy="3518089"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>-114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6829425" cy="7115175"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="5210258" cy="5410200"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="5210258" cy="5410200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
           <xdr:cNvPr id="17" name="Shape 17"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
@@ -1046,7 +1046,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="7315198" cy="3518089"/>
+            <a:ext cx="5210258" cy="5410200"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>

--- a/画面設計/画面設計一覧.xlsx
+++ b/画面設計/画面設計一覧.xlsx
@@ -1014,9 +1014,9 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>-114300</xdr:rowOff>
+      <xdr:rowOff>-161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6829425" cy="7115175"/>
+    <xdr:ext cx="7762875" cy="7086600"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -1025,9 +1025,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="5210258" cy="5410200"/>
+          <a:ext cx="7515225" cy="6867525"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="5210258" cy="5410200"/>
+          <a:chExt cx="7515225" cy="6867525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1046,7 +1046,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="5210258" cy="5410200"/>
+            <a:ext cx="7515225" cy="6867525"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
